--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors_HK.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors_HK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onewri.sharepoint.com/sites/traccity/Shared Documents/HK 2050 is now/EPS HK 2.0/eps-2.0.0-us-wipF/InputData/elec/BDSBaPCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B7EC880F-D7B8-4EFF-B441-7D939866CE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3823E878-81A8-484C-AB8B-783DC16A3019}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B7EC880F-D7B8-4EFF-B441-7D939866CE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{516CFE60-2B2C-46D0-8F68-D7D978C33E76}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -653,8 +653,8 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,8 +797,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <f>B9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -807,6 +806,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1040,40 +1057,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E1AC9E-FC70-4462-837A-1C977CE36C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A079EC84-DA3C-4D91-B4C2-A208014F60BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1097,9 +1084,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A079EC84-DA3C-4D91-B4C2-A208014F60BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E1AC9E-FC70-4462-837A-1C977CE36C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>